--- a/Project-KTXForecasting/Result/20250110_KCI/Forecasting_경부선_FUTR8+LAG0.xlsx
+++ b/Project-KTXForecasting/Result/20250110_KCI/Forecasting_경부선_FUTR8+LAG0.xlsx
@@ -38,37 +38,37 @@
     <t>MedAPE</t>
   </si>
   <si>
+    <t>LSTM</t>
+  </si>
+  <si>
     <t>RNN</t>
+  </si>
+  <si>
+    <t>GRU</t>
+  </si>
+  <si>
+    <t>DilatedRNN</t>
   </si>
   <si>
     <t>TCN</t>
   </si>
   <si>
-    <t>LSTM</t>
-  </si>
-  <si>
-    <t>DilatedRNN</t>
-  </si>
-  <si>
-    <t>GRU</t>
+    <t>RandomForest</t>
   </si>
   <si>
     <t>LightGBM</t>
   </si>
   <si>
-    <t>RandomForest</t>
+    <t>XGBoost</t>
   </si>
   <si>
     <t>CatBoost</t>
   </si>
   <si>
-    <t>XGBoost</t>
+    <t>NBEATSx</t>
   </si>
   <si>
     <t>NHITS</t>
-  </si>
-  <si>
-    <t>NBEATSx</t>
   </si>
   <si>
     <t>TiDE</t>
@@ -481,25 +481,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>9743609073.223959</v>
+        <v>11124468842.74479</v>
       </c>
       <c r="C2">
-        <v>98709.72127011584</v>
+        <v>105472.5975917195</v>
       </c>
       <c r="D2">
-        <v>0.0008114753887758252</v>
+        <v>0.0008362102365374165</v>
       </c>
       <c r="E2">
-        <v>83818.39583333333</v>
+        <v>70294.64583333333</v>
       </c>
       <c r="F2">
-        <v>0.02433155813610341</v>
+        <v>0.01960774880529991</v>
       </c>
       <c r="G2">
-        <v>80275.5</v>
+        <v>29290.875</v>
       </c>
       <c r="H2">
-        <v>0.02319964474610793</v>
+        <v>0.008589295419335672</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -507,25 +507,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10471292404.52604</v>
+        <v>9803865796.088541</v>
       </c>
       <c r="C3">
-        <v>102329.3330601057</v>
+        <v>99014.47265975081</v>
       </c>
       <c r="D3">
-        <v>0.0008779690813866723</v>
+        <v>0.0007316551143922648</v>
       </c>
       <c r="E3">
-        <v>92154.77083333333</v>
+        <v>73193.22916666667</v>
       </c>
       <c r="F3">
-        <v>0.02674183002181187</v>
+        <v>0.0204588657703818</v>
       </c>
       <c r="G3">
-        <v>86919.125</v>
+        <v>44003.875</v>
       </c>
       <c r="H3">
-        <v>0.02523682175505138</v>
+        <v>0.01304011931249383</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -533,25 +533,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>12299570721.40104</v>
+        <v>13608797460.58333</v>
       </c>
       <c r="C4">
-        <v>110903.4297098203</v>
+        <v>116656.7506001403</v>
       </c>
       <c r="D4">
-        <v>0.001057617777852893</v>
+        <v>0.00105446581991383</v>
       </c>
       <c r="E4">
-        <v>105526.7291666667</v>
+        <v>86115.95833333333</v>
       </c>
       <c r="F4">
-        <v>0.03090604599054009</v>
+        <v>0.02439072013511816</v>
       </c>
       <c r="G4">
-        <v>95871</v>
+        <v>62328</v>
       </c>
       <c r="H4">
-        <v>0.02788226912001204</v>
+        <v>0.01840067418829835</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -559,25 +559,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>12799506462.21354</v>
+        <v>11686815110.125</v>
       </c>
       <c r="C5">
-        <v>113134.9038193498</v>
+        <v>108105.5739086797</v>
       </c>
       <c r="D5">
-        <v>0.001119453203021263</v>
+        <v>0.0009389252054663151</v>
       </c>
       <c r="E5">
-        <v>105314.2708333333</v>
+        <v>90282.54166666667</v>
       </c>
       <c r="F5">
-        <v>0.03101538317776716</v>
+        <v>0.02581241851110072</v>
       </c>
       <c r="G5">
-        <v>108577.375</v>
+        <v>68914.375</v>
       </c>
       <c r="H5">
-        <v>0.03057613958652472</v>
+        <v>0.02025589858751223</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -585,25 +585,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>18146916523.73438</v>
+        <v>19912892248.16146</v>
       </c>
       <c r="C6">
-        <v>134710.4915132239</v>
+        <v>141113.0477601609</v>
       </c>
       <c r="D6">
-        <v>0.001551373523552239</v>
+        <v>0.001546159414558528</v>
       </c>
       <c r="E6">
-        <v>129872.4791666667</v>
+        <v>120656.3125</v>
       </c>
       <c r="F6">
-        <v>0.03799508675888304</v>
+        <v>0.03426732008172772</v>
       </c>
       <c r="G6">
-        <v>129263.125</v>
+        <v>102385.125</v>
       </c>
       <c r="H6">
-        <v>0.03707490153618405</v>
+        <v>0.02945889908325067</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -611,25 +611,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>32400478702.28465</v>
+        <v>34492082704.25089</v>
       </c>
       <c r="C7">
-        <v>180001.3297236569</v>
+        <v>185720.4423434612</v>
       </c>
       <c r="D7">
-        <v>0.00280364376298783</v>
+        <v>0.002613653342970549</v>
       </c>
       <c r="E7">
-        <v>152768.5348079716</v>
+        <v>145800.0458333334</v>
       </c>
       <c r="F7">
-        <v>0.04484611757579954</v>
+        <v>0.04084941708397644</v>
       </c>
       <c r="G7">
-        <v>136420.7200982117</v>
+        <v>131226.595</v>
       </c>
       <c r="H7">
-        <v>0.0393479964568982</v>
+        <v>0.03783105355822282</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -637,25 +637,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>37910253273.52322</v>
+        <v>42824622674.16051</v>
       </c>
       <c r="C8">
-        <v>194705.5553227057</v>
+        <v>206941.1091933174</v>
       </c>
       <c r="D8">
-        <v>0.003287965035827848</v>
+        <v>0.003202221902928553</v>
       </c>
       <c r="E8">
-        <v>167680.4125</v>
+        <v>161926.8935842552</v>
       </c>
       <c r="F8">
-        <v>0.04935405473998624</v>
+        <v>0.04543613040389319</v>
       </c>
       <c r="G8">
-        <v>174842.4949999999</v>
+        <v>127334.3800924853</v>
       </c>
       <c r="H8">
-        <v>0.05233954390796328</v>
+        <v>0.03594854200447672</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -663,25 +663,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>43049276090.81345</v>
+        <v>34420950782.14584</v>
       </c>
       <c r="C9">
-        <v>207483.1947190265</v>
+        <v>185528.8408365283</v>
       </c>
       <c r="D9">
-        <v>0.003628499706093948</v>
+        <v>0.002720153647128631</v>
       </c>
       <c r="E9">
-        <v>184789.7154682419</v>
+        <v>154484.4166666667</v>
       </c>
       <c r="F9">
-        <v>0.05384182751376784</v>
+        <v>0.043658177474038</v>
       </c>
       <c r="G9">
-        <v>183776.844098143</v>
+        <v>167010.125</v>
       </c>
       <c r="H9">
-        <v>0.05567346476504689</v>
+        <v>0.04761124093112483</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -689,25 +689,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>49610445247.57812</v>
+        <v>69716647021.58784</v>
       </c>
       <c r="C10">
-        <v>222734.0235518097</v>
+        <v>264039.1013118849</v>
       </c>
       <c r="D10">
-        <v>0.004219816925444409</v>
+        <v>0.005345788999484235</v>
       </c>
       <c r="E10">
-        <v>207370.8541666667</v>
+        <v>214367.5650532852</v>
       </c>
       <c r="F10">
-        <v>0.06052233663282244</v>
+        <v>0.06009850462866285</v>
       </c>
       <c r="G10">
-        <v>228873.125</v>
+        <v>191581.6214945349</v>
       </c>
       <c r="H10">
-        <v>0.06682707155855301</v>
+        <v>0.05500934249019901</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -715,25 +715,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>174492533546.4688</v>
+        <v>2338309762330.451</v>
       </c>
       <c r="C11">
-        <v>417723.0344935131</v>
+        <v>1529153.282810605</v>
       </c>
       <c r="D11">
-        <v>0.01428123675948596</v>
+        <v>0.1889537974906284</v>
       </c>
       <c r="E11">
-        <v>306874.0833333333</v>
+        <v>1484965.75</v>
       </c>
       <c r="F11">
-        <v>0.08851242535894073</v>
+        <v>0.42322090939127</v>
       </c>
       <c r="G11">
-        <v>138919.125</v>
+        <v>1501152</v>
       </c>
       <c r="H11">
-        <v>0.04122206646417281</v>
+        <v>0.4295537575714289</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -741,25 +741,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>170313738082.6094</v>
+        <v>2579647442192.237</v>
       </c>
       <c r="C12">
-        <v>412690.8504953912</v>
+        <v>1606128.090219531</v>
       </c>
       <c r="D12">
-        <v>0.01388404824855072</v>
+        <v>0.2087221986416643</v>
       </c>
       <c r="E12">
-        <v>301693.8958333333</v>
+        <v>1528140.791666667</v>
       </c>
       <c r="F12">
-        <v>0.08689300355752234</v>
+        <v>0.4351356927658603</v>
       </c>
       <c r="G12">
-        <v>160886.875</v>
+        <v>1546697.1875</v>
       </c>
       <c r="H12">
-        <v>0.04763646208456563</v>
+        <v>0.4348236231536912</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -767,25 +767,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>475005790685.3659</v>
+        <v>4914232754970.374</v>
       </c>
       <c r="C13">
-        <v>689206.6385964125</v>
+        <v>2216806.882651345</v>
       </c>
       <c r="D13">
-        <v>0.04152263550698715</v>
+        <v>0.3909278881815189</v>
       </c>
       <c r="E13">
-        <v>571728.5520833334</v>
+        <v>1953559.655598958</v>
       </c>
       <c r="F13">
-        <v>0.167849726900396</v>
+        <v>0.5530953006987366</v>
       </c>
       <c r="G13">
-        <v>511529.625</v>
+        <v>1850540.375</v>
       </c>
       <c r="H13">
-        <v>0.1403258134943309</v>
+        <v>0.5327543326754192</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -793,25 +793,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>3202305684145.409</v>
+        <v>4352126637722.264</v>
       </c>
       <c r="C14">
-        <v>1789498.724264817</v>
+        <v>2086175.121537563</v>
       </c>
       <c r="D14">
-        <v>0.2719638282525427</v>
+        <v>0.3556092385251046</v>
       </c>
       <c r="E14">
-        <v>1765238.1875</v>
+        <v>2070399.71875</v>
       </c>
       <c r="F14">
-        <v>0.5155132894381589</v>
+        <v>0.592263594306804</v>
       </c>
       <c r="G14">
-        <v>1614511.5625</v>
+        <v>2112804.125</v>
       </c>
       <c r="H14">
-        <v>0.4728647065495423</v>
+        <v>0.5888403323459205</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +821,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -879,757 +879,757 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2">
-        <v>45017</v>
+        <v>45108</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3281372</v>
+        <v>3279768</v>
       </c>
       <c r="D2">
-        <v>3245616.75</v>
+        <v>3314281.25</v>
       </c>
       <c r="E2">
-        <v>3278106</v>
+        <v>3323479.25</v>
       </c>
       <c r="F2">
-        <v>3230915.5</v>
+        <v>3351946</v>
       </c>
       <c r="G2">
-        <v>3212277.25</v>
+        <v>3334287</v>
       </c>
       <c r="H2">
-        <v>3185188.75</v>
+        <v>3184188</v>
       </c>
       <c r="I2">
-        <v>3011573.5549515</v>
+        <v>3270680.67</v>
       </c>
       <c r="J2">
-        <v>3016893.92</v>
+        <v>3369588.95045191</v>
       </c>
       <c r="K2">
-        <v>3094343.004130378</v>
+        <v>3265206.5</v>
       </c>
       <c r="L2">
-        <v>3026302.5</v>
+        <v>3222261.259811829</v>
       </c>
       <c r="M2">
-        <v>3418246.5</v>
+        <v>2699292.5</v>
       </c>
       <c r="N2">
-        <v>3426702.5</v>
+        <v>3021018.25</v>
       </c>
       <c r="O2">
-        <v>3397363</v>
+        <v>3461246.5</v>
       </c>
       <c r="P2">
-        <v>1921978.5</v>
+        <v>1743218</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2">
-        <v>45047</v>
+        <v>45139</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3460800</v>
+        <v>3352224</v>
       </c>
       <c r="D3">
-        <v>3432102</v>
+        <v>3359288.5</v>
       </c>
       <c r="E3">
-        <v>3380950.25</v>
+        <v>3340158.25</v>
       </c>
       <c r="F3">
-        <v>3382433.5</v>
+        <v>3355764.5</v>
       </c>
       <c r="G3">
-        <v>3382213.75</v>
+        <v>3272368.5</v>
       </c>
       <c r="H3">
-        <v>3413842</v>
+        <v>3246261.75</v>
       </c>
       <c r="I3">
-        <v>3322060.125956406</v>
+        <v>3322716.76</v>
       </c>
       <c r="J3">
-        <v>3212726.34</v>
+        <v>3310548.301535641</v>
       </c>
       <c r="K3">
-        <v>3191858.746469828</v>
+        <v>3354823</v>
       </c>
       <c r="L3">
-        <v>3142058.75</v>
+        <v>3324454.548553146</v>
       </c>
       <c r="M3">
-        <v>3319836.25</v>
+        <v>1729542.75</v>
       </c>
       <c r="N3">
-        <v>3284356.75</v>
+        <v>1882159.625</v>
       </c>
       <c r="O3">
-        <v>3154137.5</v>
+        <v>2523217.25</v>
       </c>
       <c r="P3">
-        <v>1839734.125</v>
+        <v>1057115</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3274361</v>
+        <v>3291100</v>
       </c>
       <c r="D4">
-        <v>3207687.25</v>
+        <v>3280276</v>
       </c>
       <c r="E4">
-        <v>3193897.5</v>
+        <v>3208808.25</v>
       </c>
       <c r="F4">
-        <v>3124503</v>
+        <v>3136933</v>
       </c>
       <c r="G4">
-        <v>3122883.5</v>
+        <v>3185755.25</v>
       </c>
       <c r="H4">
-        <v>3152577.5</v>
+        <v>3144184.5</v>
       </c>
       <c r="I4">
-        <v>3047396.021676786</v>
+        <v>3124668.84</v>
       </c>
       <c r="J4">
-        <v>3045515.39</v>
+        <v>3124123.006178239</v>
       </c>
       <c r="K4">
-        <v>3072292.679793676</v>
+        <v>3084932</v>
       </c>
       <c r="L4">
-        <v>2990613.5</v>
+        <v>3123656.983542201</v>
       </c>
       <c r="M4">
-        <v>2742274.75</v>
+        <v>1471015</v>
       </c>
       <c r="N4">
-        <v>2782113.25</v>
+        <v>1166399</v>
       </c>
       <c r="O4">
-        <v>2707082.5</v>
+        <v>2409921</v>
       </c>
       <c r="P4">
-        <v>1265034.125</v>
+        <v>903195.75</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="2">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>3279768</v>
+        <v>3643417</v>
       </c>
       <c r="D5">
-        <v>3281804.75</v>
+        <v>3605549.75</v>
       </c>
       <c r="E5">
-        <v>3248680.75</v>
+        <v>3604930.5</v>
       </c>
       <c r="F5">
-        <v>3202300.25</v>
+        <v>3629723.5</v>
       </c>
       <c r="G5">
-        <v>3213749.75</v>
+        <v>3632103.5</v>
       </c>
       <c r="H5">
-        <v>3170718.75</v>
+        <v>3544609</v>
       </c>
       <c r="I5">
-        <v>3325224.539962066</v>
+        <v>3603523.26</v>
       </c>
       <c r="J5">
-        <v>3212394.91</v>
+        <v>3618370.459586975</v>
       </c>
       <c r="K5">
-        <v>3214142.483928449</v>
+        <v>3609838.25</v>
       </c>
       <c r="L5">
-        <v>3216719</v>
+        <v>3565193.394444495</v>
       </c>
       <c r="M5">
-        <v>3237323.75</v>
+        <v>1746578.625</v>
       </c>
       <c r="N5">
-        <v>3240058.75</v>
+        <v>1506217.75</v>
       </c>
       <c r="O5">
-        <v>3126380</v>
+        <v>2508771.5</v>
       </c>
       <c r="P5">
-        <v>1714264</v>
+        <v>1406485</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="2">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>3352224</v>
+        <v>3547176</v>
       </c>
       <c r="D6">
-        <v>3282834</v>
+        <v>3523107.5</v>
       </c>
       <c r="E6">
-        <v>3210709.5</v>
+        <v>3526771.5</v>
       </c>
       <c r="F6">
-        <v>3249492.5</v>
+        <v>3494698</v>
       </c>
       <c r="G6">
-        <v>3194040</v>
+        <v>3581026.25</v>
       </c>
       <c r="H6">
-        <v>3228499.25</v>
+        <v>3490463.25</v>
       </c>
       <c r="I6">
-        <v>3259594.042042706</v>
+        <v>3322424.41</v>
       </c>
       <c r="J6">
-        <v>3239185.84</v>
+        <v>3325820.394195813</v>
       </c>
       <c r="K6">
-        <v>3214474.818733006</v>
+        <v>3304576</v>
       </c>
       <c r="L6">
-        <v>3149547.25</v>
+        <v>3286414.317487483</v>
       </c>
       <c r="M6">
-        <v>3399035.25</v>
+        <v>2115220.5</v>
       </c>
       <c r="N6">
-        <v>3339729.5</v>
+        <v>2017941.625</v>
       </c>
       <c r="O6">
-        <v>3027136.75</v>
+        <v>2205241.5</v>
       </c>
       <c r="P6">
-        <v>1852025.875</v>
+        <v>1628910.875</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="2">
-        <v>45170</v>
+        <v>45261</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>3291100</v>
+        <v>3647548</v>
       </c>
       <c r="D7">
-        <v>3186734</v>
+        <v>3627512</v>
       </c>
       <c r="E7">
-        <v>3227031.5</v>
+        <v>3573546.5</v>
       </c>
       <c r="F7">
-        <v>3170286.5</v>
+        <v>3645274.5</v>
       </c>
       <c r="G7">
-        <v>3152036.25</v>
+        <v>3613559.5</v>
       </c>
       <c r="H7">
-        <v>3130770</v>
+        <v>3562933.25</v>
       </c>
       <c r="I7">
-        <v>3074517.189419005</v>
+        <v>3560121.54</v>
       </c>
       <c r="J7">
-        <v>3026530.19</v>
+        <v>3536010.413581133</v>
       </c>
       <c r="K7">
-        <v>3110575.307673336</v>
+        <v>3519695.75</v>
       </c>
       <c r="L7">
-        <v>3097339.75</v>
+        <v>3431827.773468729</v>
       </c>
       <c r="M7">
-        <v>2687842.5</v>
+        <v>2189391.5</v>
       </c>
       <c r="N7">
-        <v>2693890.5</v>
+        <v>2083388</v>
       </c>
       <c r="O7">
-        <v>1932193.875</v>
+        <v>1817444.75</v>
       </c>
       <c r="P7">
-        <v>1177895</v>
+        <v>1582459.5</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2">
-        <v>45200</v>
+        <v>45292</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>3643417</v>
+        <v>3318669</v>
       </c>
       <c r="D8">
-        <v>3605465.75</v>
+        <v>3250071.5</v>
       </c>
       <c r="E8">
-        <v>3555531.75</v>
+        <v>3302530.75</v>
       </c>
       <c r="F8">
-        <v>3562538.75</v>
+        <v>3275148.5</v>
       </c>
       <c r="G8">
-        <v>3582219.75</v>
+        <v>3180443</v>
       </c>
       <c r="H8">
-        <v>3494455.25</v>
+        <v>3180955.5</v>
       </c>
       <c r="I8">
-        <v>3616460.526247153</v>
+        <v>3359690</v>
       </c>
       <c r="J8">
-        <v>3632419.46</v>
+        <v>3400791.33084104</v>
       </c>
       <c r="K8">
-        <v>3561320.849541669</v>
+        <v>3394199</v>
       </c>
       <c r="L8">
-        <v>3468791</v>
+        <v>3340407.531284524</v>
       </c>
       <c r="M8">
-        <v>2755669.75</v>
+        <v>2253590</v>
       </c>
       <c r="N8">
-        <v>2747891</v>
+        <v>2262606</v>
       </c>
       <c r="O8">
-        <v>3086867</v>
+        <v>1447691.5</v>
       </c>
       <c r="P8">
-        <v>1302014</v>
+        <v>1567944.375</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2">
-        <v>45231</v>
+        <v>45323</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3547176</v>
+        <v>3464111</v>
       </c>
       <c r="D9">
-        <v>3456015</v>
+        <v>3441198.5</v>
       </c>
       <c r="E9">
-        <v>3423254.75</v>
+        <v>3376967</v>
       </c>
       <c r="F9">
-        <v>3450074.75</v>
+        <v>3328645.25</v>
       </c>
       <c r="G9">
-        <v>3513428.25</v>
+        <v>3302405.5</v>
       </c>
       <c r="H9">
-        <v>3439810.25</v>
+        <v>3283235</v>
       </c>
       <c r="I9">
-        <v>3258658.559216253</v>
+        <v>3331591.33</v>
       </c>
       <c r="J9">
-        <v>3248376.84</v>
+        <v>3320979.826233896</v>
       </c>
       <c r="K9">
-        <v>3268140.818524576</v>
+        <v>3255672.25</v>
       </c>
       <c r="L9">
-        <v>3287469.25</v>
+        <v>3086638.27363617</v>
       </c>
       <c r="M9">
-        <v>2911754.5</v>
+        <v>2028040.375</v>
       </c>
       <c r="N9">
-        <v>2948617.75</v>
+        <v>2073100.75</v>
       </c>
       <c r="O9">
-        <v>3388362.75</v>
+        <v>544446.5</v>
       </c>
       <c r="P9">
-        <v>1488111.875</v>
+        <v>1498545</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="2">
-        <v>45261</v>
+        <v>45352</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>3647548</v>
+        <v>3473501</v>
       </c>
       <c r="D10">
-        <v>3491644.75</v>
+        <v>3332867.25</v>
       </c>
       <c r="E10">
-        <v>3546064</v>
+        <v>3429204.5</v>
       </c>
       <c r="F10">
-        <v>3552907.25</v>
+        <v>3368308.25</v>
       </c>
       <c r="G10">
-        <v>3548163.5</v>
+        <v>3415527.75</v>
       </c>
       <c r="H10">
-        <v>3512746.5</v>
+        <v>3407084.75</v>
       </c>
       <c r="I10">
-        <v>3525619.947007594</v>
+        <v>3343567.48</v>
       </c>
       <c r="J10">
-        <v>3561861.13</v>
+        <v>3406515.420449086</v>
       </c>
       <c r="K10">
-        <v>3441481.446013721</v>
+        <v>3353304.75</v>
       </c>
       <c r="L10">
-        <v>3380570.25</v>
+        <v>3321448.312935742</v>
       </c>
       <c r="M10">
-        <v>3204651.5</v>
+        <v>1929353.5</v>
       </c>
       <c r="N10">
-        <v>3182463.75</v>
+        <v>1707544.5</v>
       </c>
       <c r="O10">
-        <v>3181038.75</v>
+        <v>344324.34375</v>
       </c>
       <c r="P10">
-        <v>1737451.625</v>
+        <v>1312981.25</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>3318669</v>
+        <v>3499975</v>
       </c>
       <c r="D11">
-        <v>3225948.25</v>
+        <v>3520331.5</v>
       </c>
       <c r="E11">
-        <v>3232716</v>
+        <v>3461859.5</v>
       </c>
       <c r="F11">
-        <v>3224451</v>
+        <v>3488385.75</v>
       </c>
       <c r="G11">
-        <v>3190114.25</v>
+        <v>3459786.5</v>
       </c>
       <c r="H11">
-        <v>3160875.5</v>
+        <v>3461069.75</v>
       </c>
       <c r="I11">
-        <v>3324037.703489845</v>
+        <v>3316758.62</v>
       </c>
       <c r="J11">
-        <v>3362677.15</v>
+        <v>3307711.590678965</v>
       </c>
       <c r="K11">
-        <v>3274522.16447096</v>
+        <v>3274900</v>
       </c>
       <c r="L11">
-        <v>3417374</v>
+        <v>3215191.399124763</v>
       </c>
       <c r="M11">
-        <v>3233590</v>
+        <v>2211880.75</v>
       </c>
       <c r="N11">
-        <v>3258090</v>
+        <v>2154516.25</v>
       </c>
       <c r="O11">
-        <v>2340024.25</v>
+        <v>541828.1875</v>
       </c>
       <c r="P11">
-        <v>1774153.5</v>
+        <v>1634659.75</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>3464111</v>
+        <v>3827355</v>
       </c>
       <c r="D12">
-        <v>3288737.75</v>
+        <v>3595295.5</v>
       </c>
       <c r="E12">
-        <v>3310612.25</v>
+        <v>3591274.75</v>
       </c>
       <c r="F12">
-        <v>3290743</v>
+        <v>3566263.5</v>
       </c>
       <c r="G12">
-        <v>3303418.75</v>
+        <v>3643447.25</v>
       </c>
       <c r="H12">
-        <v>3288785.5</v>
+        <v>3499016.75</v>
       </c>
       <c r="I12">
-        <v>3197933.42539168</v>
+        <v>3416468.3</v>
       </c>
       <c r="J12">
-        <v>3198655.56</v>
+        <v>3317411.306789968</v>
       </c>
       <c r="K12">
-        <v>3071538.72286026</v>
+        <v>3555295.5</v>
       </c>
       <c r="L12">
-        <v>3184519.25</v>
+        <v>3311943.092259453</v>
       </c>
       <c r="M12">
-        <v>3418589.5</v>
+        <v>2041650</v>
       </c>
       <c r="N12">
-        <v>3419987</v>
+        <v>2145196</v>
       </c>
       <c r="O12">
-        <v>2403784.75</v>
+        <v>963311.6875</v>
       </c>
       <c r="P12">
-        <v>1912982.375</v>
+        <v>1491626.75</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>3473501</v>
+        <v>3594676</v>
       </c>
       <c r="D13">
-        <v>3327709.5</v>
+        <v>3370073.5</v>
       </c>
       <c r="E13">
-        <v>3320635.5</v>
+        <v>3409093</v>
       </c>
       <c r="F13">
-        <v>3327080.25</v>
+        <v>3416474.75</v>
       </c>
       <c r="G13">
-        <v>3355730.75</v>
+        <v>3412158</v>
       </c>
       <c r="H13">
-        <v>3297308</v>
+        <v>3487642.75</v>
       </c>
       <c r="I13">
-        <v>3339399.433847171</v>
+        <v>3299750.24</v>
       </c>
       <c r="J13">
-        <v>3352661.62</v>
+        <v>3302412.839052171</v>
       </c>
       <c r="K13">
-        <v>3301879.372241238</v>
+        <v>3269522</v>
       </c>
       <c r="L13">
-        <v>3381702.25</v>
+        <v>3181149.395381089</v>
       </c>
       <c r="M13">
-        <v>3390115.25</v>
+        <v>1704375.5</v>
       </c>
       <c r="N13">
-        <v>3380480.5</v>
+        <v>1581742.75</v>
       </c>
       <c r="O13">
-        <v>2660915.25</v>
+        <v>92316.4140625</v>
       </c>
       <c r="P13">
-        <v>1865543.75</v>
+        <v>1267582.125</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="2">
-        <v>45383</v>
+        <v>45474</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>3499975</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>3461530.5</v>
+        <v>3339959</v>
       </c>
       <c r="E14">
-        <v>3409524.25</v>
+        <v>3463557.5</v>
       </c>
       <c r="F14">
-        <v>3399080.75</v>
+        <v>3382758</v>
       </c>
       <c r="G14">
-        <v>3407705.25</v>
+        <v>3418085.5</v>
       </c>
       <c r="H14">
-        <v>3353000.25</v>
+        <v>3237404.5</v>
       </c>
       <c r="I14">
-        <v>3231043.493712136</v>
+        <v>3394272.66</v>
       </c>
       <c r="J14">
-        <v>3250786.94</v>
+        <v>3265561.038682184</v>
       </c>
       <c r="K14">
-        <v>3226101.524116923</v>
+        <v>3399622.5</v>
       </c>
       <c r="L14">
-        <v>3191860.75</v>
+        <v>3311231.338616733</v>
       </c>
       <c r="M14">
-        <v>3128954.5</v>
+        <v>1847336</v>
       </c>
       <c r="N14">
-        <v>3102002.75</v>
+        <v>1671067</v>
       </c>
       <c r="O14">
-        <v>2884621.75</v>
+        <v>676953.875</v>
       </c>
       <c r="P14">
-        <v>1660819.5</v>
+        <v>1339417.25</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2">
-        <v>45413</v>
+        <v>45505</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>3827355</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>3510573.25</v>
+        <v>3518582</v>
       </c>
       <c r="E15">
-        <v>3483843.75</v>
+        <v>3418798.5</v>
       </c>
       <c r="F15">
-        <v>3510518.25</v>
+        <v>3385785</v>
       </c>
       <c r="G15">
-        <v>3544217.75</v>
+        <v>3438602.25</v>
       </c>
       <c r="H15">
-        <v>3523991.25</v>
+        <v>3392170.5</v>
       </c>
       <c r="I15">
-        <v>3306013.072509189</v>
+        <v>3392241.09</v>
       </c>
       <c r="J15">
-        <v>3343746.31</v>
+        <v>3250056.117533569</v>
       </c>
       <c r="K15">
-        <v>3292302.497027428</v>
+        <v>3402855</v>
       </c>
       <c r="L15">
-        <v>3318158.25</v>
+        <v>3286497.452248905</v>
       </c>
       <c r="M15">
-        <v>3066130.75</v>
+        <v>1989999.375</v>
       </c>
       <c r="N15">
-        <v>3072886.25</v>
+        <v>1838807</v>
       </c>
       <c r="O15">
-        <v>2623062</v>
+        <v>49875.36328125</v>
       </c>
       <c r="P15">
-        <v>1600987.375</v>
+        <v>1358355.625</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="2">
-        <v>45444</v>
+        <v>45536</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>3594676</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>3258780.25</v>
+        <v>3331882.25</v>
       </c>
       <c r="E16">
-        <v>3293434.25</v>
+        <v>3357486.5</v>
       </c>
       <c r="F16">
-        <v>3398609.25</v>
+        <v>3244066.25</v>
       </c>
       <c r="G16">
-        <v>3305354.75</v>
+        <v>3237195.75</v>
       </c>
       <c r="H16">
-        <v>3357787.25</v>
+        <v>3286822.5</v>
       </c>
       <c r="I16">
-        <v>3239868.885394415</v>
+        <v>3315519.19</v>
       </c>
       <c r="J16">
-        <v>3236648.67</v>
+        <v>3363081.424187382</v>
       </c>
       <c r="K16">
-        <v>3185813.204020136</v>
+        <v>3321758.5</v>
       </c>
       <c r="L16">
-        <v>3216476</v>
+        <v>3166731.111626605</v>
       </c>
       <c r="M16">
-        <v>3143100.5</v>
+        <v>2166091.25</v>
       </c>
       <c r="N16">
-        <v>3172567.25</v>
+        <v>2088164.375</v>
       </c>
       <c r="O16">
-        <v>2204799.25</v>
+        <v>56370.1875</v>
       </c>
       <c r="P16">
-        <v>1675119.75</v>
+        <v>1503264.25</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="2">
-        <v>45474</v>
+        <v>45566</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1638,48 +1638,48 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3365177.75</v>
+        <v>3627604</v>
       </c>
       <c r="E17">
-        <v>3294318</v>
+        <v>3606489.5</v>
       </c>
       <c r="F17">
-        <v>3322804</v>
+        <v>3583059.5</v>
       </c>
       <c r="G17">
-        <v>3287328</v>
+        <v>3582697.75</v>
       </c>
       <c r="H17">
-        <v>3296325.75</v>
+        <v>3450721</v>
       </c>
       <c r="I17">
-        <v>3233962.167091467</v>
+        <v>3414762.2</v>
       </c>
       <c r="J17">
-        <v>3276991.11</v>
+        <v>3323557.579609671</v>
       </c>
       <c r="K17">
-        <v>3257004.275906989</v>
+        <v>3462705</v>
       </c>
       <c r="L17">
-        <v>3216047</v>
+        <v>3328718.956904606</v>
       </c>
       <c r="M17">
-        <v>3579170</v>
+        <v>2275273</v>
       </c>
       <c r="N17">
-        <v>3611752.5</v>
+        <v>2168453.5</v>
       </c>
       <c r="O17">
-        <v>1612766.625</v>
+        <v>-37310.9453125</v>
       </c>
       <c r="P17">
-        <v>2099277</v>
+        <v>1668830.375</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="2">
-        <v>45505</v>
+        <v>45597</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1688,48 +1688,48 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3367297</v>
+        <v>3570842.5</v>
       </c>
       <c r="E18">
-        <v>3393487.5</v>
+        <v>3536845.25</v>
       </c>
       <c r="F18">
-        <v>3347672.25</v>
+        <v>3611038</v>
       </c>
       <c r="G18">
-        <v>3309681.5</v>
+        <v>3576198</v>
       </c>
       <c r="H18">
-        <v>3329696.25</v>
+        <v>3520800</v>
       </c>
       <c r="I18">
-        <v>3215172.49326963</v>
+        <v>3377456.88</v>
       </c>
       <c r="J18">
-        <v>3322285.78</v>
+        <v>3309038.724026367</v>
       </c>
       <c r="K18">
-        <v>3312333.524604057</v>
+        <v>3415409.5</v>
       </c>
       <c r="L18">
-        <v>3278459.75</v>
+        <v>3302420.246170727</v>
       </c>
       <c r="M18">
-        <v>3806604.5</v>
+        <v>2352467</v>
       </c>
       <c r="N18">
-        <v>3816723</v>
+        <v>2295063.5</v>
       </c>
       <c r="O18">
-        <v>2605493.5</v>
+        <v>808470.5625</v>
       </c>
       <c r="P18">
-        <v>2271325</v>
+        <v>1868684.25</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="2">
-        <v>45536</v>
+        <v>45627</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1738,48 +1738,48 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3295137.25</v>
+        <v>3589184.75</v>
       </c>
       <c r="E19">
-        <v>3216148.5</v>
+        <v>3558663</v>
       </c>
       <c r="F19">
-        <v>3237321.75</v>
+        <v>3517019.5</v>
       </c>
       <c r="G19">
-        <v>3246797</v>
+        <v>3532077.75</v>
       </c>
       <c r="H19">
-        <v>3262949</v>
+        <v>3384320</v>
       </c>
       <c r="I19">
-        <v>3324659.418312716</v>
+        <v>3374781.5</v>
       </c>
       <c r="J19">
-        <v>3234580.4</v>
+        <v>3256202.390353271</v>
       </c>
       <c r="K19">
-        <v>3114910.858438024</v>
+        <v>3340207.5</v>
       </c>
       <c r="L19">
-        <v>3252909.75</v>
+        <v>3255392.856192994</v>
       </c>
       <c r="M19">
-        <v>3617986.25</v>
+        <v>2234287.75</v>
       </c>
       <c r="N19">
-        <v>3596101.5</v>
+        <v>2227833.5</v>
       </c>
       <c r="O19">
-        <v>2099100.5</v>
+        <v>616517.625</v>
       </c>
       <c r="P19">
-        <v>2004378</v>
+        <v>1749478.5</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="2">
-        <v>45566</v>
+        <v>45658</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1788,48 +1788,48 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3513247.25</v>
+        <v>3023726</v>
       </c>
       <c r="E20">
-        <v>3531041</v>
+        <v>3066388</v>
       </c>
       <c r="F20">
-        <v>3471246</v>
+        <v>3067762.75</v>
       </c>
       <c r="G20">
-        <v>3520187.5</v>
+        <v>2958652.5</v>
       </c>
       <c r="H20">
-        <v>3392926.5</v>
+        <v>3036510</v>
       </c>
       <c r="I20">
-        <v>3326914.514976653</v>
+        <v>3162763.42</v>
       </c>
       <c r="J20">
-        <v>3336530.16</v>
+        <v>3193450.188146002</v>
       </c>
       <c r="K20">
-        <v>3283633.345329551</v>
+        <v>3210116.5</v>
       </c>
       <c r="L20">
-        <v>3253047.25</v>
+        <v>3036775.862774052</v>
       </c>
       <c r="M20">
-        <v>3456287</v>
+        <v>2075893.25</v>
       </c>
       <c r="N20">
-        <v>3446908.75</v>
+        <v>1955306.5</v>
       </c>
       <c r="O20">
-        <v>2466686.25</v>
+        <v>194328.203125</v>
       </c>
       <c r="P20">
-        <v>1827299.5</v>
+        <v>1540971.375</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="2">
-        <v>45597</v>
+        <v>45689</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1838,48 +1838,48 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3439726.75</v>
+        <v>3486452.5</v>
       </c>
       <c r="E21">
-        <v>3432586.75</v>
+        <v>3462567.5</v>
       </c>
       <c r="F21">
-        <v>3495712.75</v>
+        <v>3381478.75</v>
       </c>
       <c r="G21">
-        <v>3487814.25</v>
+        <v>3382416</v>
       </c>
       <c r="H21">
-        <v>3529588</v>
+        <v>3470155.5</v>
       </c>
       <c r="I21">
-        <v>3246975.603419011</v>
+        <v>3314972.87</v>
       </c>
       <c r="J21">
-        <v>3305959.72</v>
+        <v>3311062.600483197</v>
       </c>
       <c r="K21">
-        <v>3297323.444923934</v>
+        <v>3306622.5</v>
       </c>
       <c r="L21">
-        <v>3262987</v>
+        <v>3166872.670860951</v>
       </c>
       <c r="M21">
-        <v>3092819.5</v>
+        <v>2065045.25</v>
       </c>
       <c r="N21">
-        <v>3161285.5</v>
+        <v>1891351</v>
       </c>
       <c r="O21">
-        <v>2138234</v>
+        <v>-186960.203125</v>
       </c>
       <c r="P21">
-        <v>1622969.5</v>
+        <v>1360176.125</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="2">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1888,48 +1888,48 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3363048.25</v>
+        <v>3236711.75</v>
       </c>
       <c r="E22">
-        <v>3460667</v>
+        <v>3214177</v>
       </c>
       <c r="F22">
-        <v>3416320.5</v>
+        <v>3215284.5</v>
       </c>
       <c r="G22">
-        <v>3476740.25</v>
+        <v>3169233.25</v>
       </c>
       <c r="H22">
-        <v>3425887.75</v>
+        <v>3132629.75</v>
       </c>
       <c r="I22">
-        <v>3236073.935737094</v>
+        <v>3167249.49</v>
       </c>
       <c r="J22">
-        <v>3309607.09</v>
+        <v>3193450.188146002</v>
       </c>
       <c r="K22">
-        <v>3213241.089596344</v>
+        <v>3235814</v>
       </c>
       <c r="L22">
-        <v>3223445.25</v>
+        <v>3151333.022700181</v>
       </c>
       <c r="M22">
-        <v>3145129</v>
+        <v>2237458</v>
       </c>
       <c r="N22">
-        <v>3201670.25</v>
+        <v>2001471</v>
       </c>
       <c r="O22">
-        <v>2342186</v>
+        <v>353167.9375</v>
       </c>
       <c r="P22">
-        <v>1685388.25</v>
+        <v>1505905.625</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="2">
-        <v>45658</v>
+        <v>45748</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1938,48 +1938,48 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3102318.5</v>
+        <v>3379261</v>
       </c>
       <c r="E23">
-        <v>3066030</v>
+        <v>3361012.25</v>
       </c>
       <c r="F23">
-        <v>3111871.75</v>
+        <v>3365067</v>
       </c>
       <c r="G23">
-        <v>3122288.75</v>
+        <v>3444469</v>
       </c>
       <c r="H23">
-        <v>3083281</v>
+        <v>3276427.25</v>
       </c>
       <c r="I23">
-        <v>3133219.345916915</v>
+        <v>3329362.18</v>
       </c>
       <c r="J23">
-        <v>3105307.42</v>
+        <v>3325820.394195813</v>
       </c>
       <c r="K23">
-        <v>3029177.086267588</v>
+        <v>3304576</v>
       </c>
       <c r="L23">
-        <v>3173082.75</v>
+        <v>3290609.50966035</v>
       </c>
       <c r="M23">
-        <v>3676174</v>
+        <v>2622614.5</v>
       </c>
       <c r="N23">
-        <v>3758722.75</v>
+        <v>2410154.25</v>
       </c>
       <c r="O23">
-        <v>1977465.25</v>
+        <v>455976.28125</v>
       </c>
       <c r="P23">
-        <v>2218682.5</v>
+        <v>1808315.75</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="2">
-        <v>45689</v>
+        <v>45778</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1988,48 +1988,48 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3344636</v>
+        <v>3496888</v>
       </c>
       <c r="E24">
-        <v>3292547.75</v>
+        <v>3505107.75</v>
       </c>
       <c r="F24">
-        <v>3495311.75</v>
+        <v>3451110</v>
       </c>
       <c r="G24">
-        <v>3369030</v>
+        <v>3405459</v>
       </c>
       <c r="H24">
-        <v>3417302.75</v>
+        <v>3362649.25</v>
       </c>
       <c r="I24">
-        <v>3240120.673792352</v>
+        <v>3425819.76</v>
       </c>
       <c r="J24">
-        <v>3243784.03</v>
+        <v>3317411.306789968</v>
       </c>
       <c r="K24">
-        <v>3212999.629100212</v>
+        <v>3563937</v>
       </c>
       <c r="L24">
-        <v>3292668.75</v>
+        <v>3317117.153222157</v>
       </c>
       <c r="M24">
-        <v>4347354</v>
+        <v>2663813</v>
       </c>
       <c r="N24">
-        <v>4357139.5</v>
+        <v>2601879</v>
       </c>
       <c r="O24">
-        <v>2796558.25</v>
+        <v>579167.875</v>
       </c>
       <c r="P24">
-        <v>2861916.75</v>
+        <v>1989115.125</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="2">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2038,48 +2038,48 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3174857.5</v>
+        <v>3413192.5</v>
       </c>
       <c r="E25">
-        <v>3136061.5</v>
+        <v>3402833.25</v>
       </c>
       <c r="F25">
-        <v>3178449.5</v>
+        <v>3403666.5</v>
       </c>
       <c r="G25">
-        <v>3127726.5</v>
+        <v>3378777.5</v>
       </c>
       <c r="H25">
-        <v>3116355.25</v>
+        <v>3290366.25</v>
       </c>
       <c r="I25">
-        <v>3133219.345916915</v>
+        <v>3316397.94</v>
       </c>
       <c r="J25">
-        <v>3123349.55</v>
+        <v>3307711.590678965</v>
       </c>
       <c r="K25">
-        <v>3131161.898727495</v>
+        <v>3270414.5</v>
       </c>
       <c r="L25">
-        <v>3191782</v>
+        <v>3212156.368952279</v>
       </c>
       <c r="M25">
-        <v>4223371</v>
+        <v>2497062.25</v>
       </c>
       <c r="N25">
-        <v>4217796</v>
+        <v>2379647.5</v>
       </c>
       <c r="O25">
-        <v>2590548</v>
+        <v>806374.1875</v>
       </c>
       <c r="P25">
-        <v>2698568.5</v>
+        <v>1883611.375</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="2">
-        <v>45748</v>
+        <v>45839</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2088,48 +2088,48 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>3397110.75</v>
+        <v>3255395.25</v>
       </c>
       <c r="E26">
-        <v>3210137.75</v>
+        <v>3338245.5</v>
       </c>
       <c r="F26">
-        <v>3263214.5</v>
+        <v>3320294</v>
       </c>
       <c r="G26">
-        <v>3286256</v>
+        <v>3265297.5</v>
       </c>
       <c r="H26">
-        <v>3348141</v>
+        <v>3161255.5</v>
       </c>
       <c r="I26">
-        <v>3258658.559216253</v>
+        <v>3394272.66</v>
       </c>
       <c r="J26">
-        <v>3261349.19</v>
+        <v>3265561.038682184</v>
       </c>
       <c r="K26">
-        <v>3295796.458720187</v>
+        <v>3399622.5</v>
       </c>
       <c r="L26">
-        <v>3287469.25</v>
+        <v>3311231.338616733</v>
       </c>
       <c r="M26">
-        <v>4316431.5</v>
+        <v>2321637.5</v>
       </c>
       <c r="N26">
-        <v>4299851.5</v>
+        <v>2217587.75</v>
       </c>
       <c r="O26">
-        <v>2856197</v>
+        <v>414873.78125</v>
       </c>
       <c r="P26">
-        <v>2829627.5</v>
+        <v>1715031.375</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="2">
-        <v>45778</v>
+        <v>45870</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2138,48 +2138,48 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>3364362.25</v>
+        <v>3267359.75</v>
       </c>
       <c r="E27">
-        <v>3348778.5</v>
+        <v>3409523.75</v>
       </c>
       <c r="F27">
-        <v>3406107.75</v>
+        <v>3382345.75</v>
       </c>
       <c r="G27">
-        <v>3454311.5</v>
+        <v>3357989</v>
       </c>
       <c r="H27">
-        <v>3450912.25</v>
+        <v>3316691.5</v>
       </c>
       <c r="I27">
-        <v>3306013.072509189</v>
+        <v>3392241.09</v>
       </c>
       <c r="J27">
-        <v>3353628.77</v>
+        <v>3250056.117533569</v>
       </c>
       <c r="K27">
-        <v>3344699.349803906</v>
+        <v>3402855</v>
       </c>
       <c r="L27">
-        <v>3328519.75</v>
+        <v>3286497.452248905</v>
       </c>
       <c r="M27">
-        <v>4294141.5</v>
+        <v>2157514.75</v>
       </c>
       <c r="N27">
-        <v>4259966</v>
+        <v>1982698.5</v>
       </c>
       <c r="O27">
-        <v>3165091</v>
+        <v>840408.9375</v>
       </c>
       <c r="P27">
-        <v>2808834.25</v>
+        <v>1573277</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="2">
-        <v>45809</v>
+        <v>45901</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2188,48 +2188,48 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>3262854.75</v>
+        <v>3439138.25</v>
       </c>
       <c r="E28">
-        <v>3304229</v>
+        <v>3417722.5</v>
       </c>
       <c r="F28">
-        <v>3369498</v>
+        <v>3375943.5</v>
       </c>
       <c r="G28">
-        <v>3307688</v>
+        <v>3397581</v>
       </c>
       <c r="H28">
-        <v>3248033.5</v>
+        <v>3442584.25</v>
       </c>
       <c r="I28">
-        <v>3231043.493712136</v>
+        <v>3327899.46</v>
       </c>
       <c r="J28">
-        <v>3249869.41</v>
+        <v>3325820.394195813</v>
       </c>
       <c r="K28">
-        <v>3205290.528635773</v>
+        <v>3304576</v>
       </c>
       <c r="L28">
-        <v>3225532.5</v>
+        <v>3287070.86498696</v>
       </c>
       <c r="M28">
-        <v>4244204</v>
+        <v>2402634.5</v>
       </c>
       <c r="N28">
-        <v>4268261</v>
+        <v>2072166.25</v>
       </c>
       <c r="O28">
-        <v>3228666.25</v>
+        <v>1187809.5</v>
       </c>
       <c r="P28">
-        <v>2831725.5</v>
+        <v>1926657.875</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="2">
-        <v>45839</v>
+        <v>45931</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2238,48 +2238,48 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>3255325</v>
+        <v>3374670</v>
       </c>
       <c r="E29">
-        <v>3179312.5</v>
+        <v>3447607</v>
       </c>
       <c r="F29">
-        <v>3177798.75</v>
+        <v>3326513</v>
       </c>
       <c r="G29">
-        <v>3131440.5</v>
+        <v>3383414.75</v>
       </c>
       <c r="H29">
-        <v>3222607.25</v>
+        <v>3249364.75</v>
       </c>
       <c r="I29">
-        <v>3233962.167091467</v>
+        <v>3443886.36</v>
       </c>
       <c r="J29">
-        <v>3276991.11</v>
+        <v>3317411.306789968</v>
       </c>
       <c r="K29">
-        <v>3257004.275906989</v>
+        <v>3559547.5</v>
       </c>
       <c r="L29">
-        <v>3216047</v>
+        <v>3139325.341846148</v>
       </c>
       <c r="M29">
-        <v>4701602</v>
+        <v>2892344.5</v>
       </c>
       <c r="N29">
-        <v>4678871</v>
+        <v>2623667</v>
       </c>
       <c r="O29">
-        <v>3134297</v>
+        <v>2137060.25</v>
       </c>
       <c r="P29">
-        <v>3294858.25</v>
+        <v>2317651.25</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="2">
-        <v>45870</v>
+        <v>45962</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2288,48 +2288,48 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>3313626.75</v>
+        <v>3409514.25</v>
       </c>
       <c r="E30">
-        <v>3255328.75</v>
+        <v>3508965.25</v>
       </c>
       <c r="F30">
-        <v>3281301.75</v>
+        <v>3482008.25</v>
       </c>
       <c r="G30">
-        <v>3278730.25</v>
+        <v>3415143.25</v>
       </c>
       <c r="H30">
-        <v>3298607.5</v>
+        <v>3456628.5</v>
       </c>
       <c r="I30">
-        <v>3215172.49326963</v>
+        <v>3377456.88</v>
       </c>
       <c r="J30">
-        <v>3322285.78</v>
+        <v>3309038.724026367</v>
       </c>
       <c r="K30">
-        <v>3312333.524604057</v>
+        <v>3415409.5</v>
       </c>
       <c r="L30">
-        <v>3278459.75</v>
+        <v>3302420.246170727</v>
       </c>
       <c r="M30">
-        <v>4440434</v>
+        <v>3196832.75</v>
       </c>
       <c r="N30">
-        <v>4455789.5</v>
+        <v>3159281.75</v>
       </c>
       <c r="O30">
-        <v>2967176.25</v>
+        <v>2270231.25</v>
       </c>
       <c r="P30">
-        <v>2965341</v>
+        <v>2655727.25</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="2">
-        <v>45901</v>
+        <v>45992</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2338,193 +2338,43 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>3351397.75</v>
+        <v>3438045.25</v>
       </c>
       <c r="E31">
-        <v>3263691</v>
+        <v>3544506.25</v>
       </c>
       <c r="F31">
-        <v>3328962.25</v>
+        <v>3489192.25</v>
       </c>
       <c r="G31">
-        <v>3292265.5</v>
+        <v>3460815.25</v>
       </c>
       <c r="H31">
-        <v>3255305.5</v>
+        <v>3357426.5</v>
       </c>
       <c r="I31">
-        <v>3258658.559216253</v>
+        <v>3376749.78</v>
       </c>
       <c r="J31">
-        <v>3260965.35</v>
+        <v>3246236.28061653</v>
       </c>
       <c r="K31">
-        <v>3274315.933105637</v>
+        <v>3339106</v>
       </c>
       <c r="L31">
-        <v>3287469.25</v>
+        <v>3265397.363994136</v>
       </c>
       <c r="M31">
-        <v>4591953.5</v>
+        <v>3092269.25</v>
       </c>
       <c r="N31">
-        <v>4556081</v>
+        <v>3031714.25</v>
       </c>
       <c r="O31">
-        <v>2244646</v>
+        <v>2062671</v>
       </c>
       <c r="P31">
-        <v>3098908.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="2">
-        <v>45931</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>3433506</v>
-      </c>
-      <c r="E32">
-        <v>3401118.25</v>
-      </c>
-      <c r="F32">
-        <v>3442943.75</v>
-      </c>
-      <c r="G32">
-        <v>3281007.5</v>
-      </c>
-      <c r="H32">
-        <v>3438821</v>
-      </c>
-      <c r="I32">
-        <v>3306013.072509189</v>
-      </c>
-      <c r="J32">
-        <v>3358334.12</v>
-      </c>
-      <c r="K32">
-        <v>3081617.313572049</v>
-      </c>
-      <c r="L32">
-        <v>3285508</v>
-      </c>
-      <c r="M32">
-        <v>4411314.5</v>
-      </c>
-      <c r="N32">
-        <v>4409915.5</v>
-      </c>
-      <c r="O32">
-        <v>2191261.75</v>
-      </c>
-      <c r="P32">
-        <v>2948854.75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="2">
-        <v>45962</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>3361072.75</v>
-      </c>
-      <c r="E33">
-        <v>3379754</v>
-      </c>
-      <c r="F33">
-        <v>3368757</v>
-      </c>
-      <c r="G33">
-        <v>3437332.5</v>
-      </c>
-      <c r="H33">
-        <v>3467583.75</v>
-      </c>
-      <c r="I33">
-        <v>3246975.603419011</v>
-      </c>
-      <c r="J33">
-        <v>3305959.72</v>
-      </c>
-      <c r="K33">
-        <v>3297323.444923934</v>
-      </c>
-      <c r="L33">
-        <v>3262987</v>
-      </c>
-      <c r="M33">
-        <v>4395077</v>
-      </c>
-      <c r="N33">
-        <v>4399981.5</v>
-      </c>
-      <c r="O33">
-        <v>2455766.75</v>
-      </c>
-      <c r="P33">
-        <v>2850040.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="2">
-        <v>45992</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>3419945.5</v>
-      </c>
-      <c r="E34">
-        <v>3416003.5</v>
-      </c>
-      <c r="F34">
-        <v>3397434.75</v>
-      </c>
-      <c r="G34">
-        <v>3374602.5</v>
-      </c>
-      <c r="H34">
-        <v>3416838.5</v>
-      </c>
-      <c r="I34">
-        <v>3199810.762912304</v>
-      </c>
-      <c r="J34">
-        <v>3304649.44</v>
-      </c>
-      <c r="K34">
-        <v>3194422.766067152</v>
-      </c>
-      <c r="L34">
-        <v>3217727.5</v>
-      </c>
-      <c r="M34">
-        <v>4422943.5</v>
-      </c>
-      <c r="N34">
-        <v>4437740.5</v>
-      </c>
-      <c r="O34">
-        <v>2812584.5</v>
-      </c>
-      <c r="P34">
-        <v>2935331.75</v>
+        <v>2683618.25</v>
       </c>
     </row>
   </sheetData>
